--- a/biology/Mycologie/Buchwaldoboletus_sphaerocephalus/Buchwaldoboletus_sphaerocephalus.xlsx
+++ b/biology/Mycologie/Buchwaldoboletus_sphaerocephalus/Buchwaldoboletus_sphaerocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet soufré, Bolet à chapeau sphérique
 Buchwaldoboletus sphaerocephalus, le Bolet soufré, est une espèce rare de champignon (Fungi) basidiomycète du genre Buchwaldoboletus dans la famille des Boletaceae qui a la particularité de pousser sur sciure ou bois pourri de conifères. Il est aussi caractérisé par ses couleurs crème jaunâtre, son grand chapeau souvent hémisphérique, sa chair bleuissante et sa pousse souvent cespiteuse.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Buchwaldoboletus sphaerocephalus (Barla) Watling &amp; T.H. Li[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus sphaerocephalus Barla[1].
-Synonymes
-Buchwaldoboletus sphaerocephalus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Buchwaldoboletus sphaerocephalus (Barla) Watling &amp; T.H. Li.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus sphaerocephalus Barla.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Buchwaldoboletus_sphaerocephalus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buchwaldoboletus_sphaerocephalus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buchwaldoboletus sphaerocephalus a pour synonymes :
 Boletus sphaerocephalus Barla
 Boletus sulphureus f. sphaerocephalus (Barla) Konrad &amp; Maubl.
 Boletus sulphureus Fr.
@@ -531,47 +580,154 @@
 Suillus sphaerocephalus (Barla) Kuntze
 Versipellis sulphurea Quél., 1886
 Viscipellis sphaerocephala (Barla) Quél.
-Phylogénie
-Les anciennes récoltes Européennes étaient faites sous le nom de Buchwaldoboletus hemichrysus, le Bolet à moitié jaune, les récoltes cespiteuses étant parfois considérées comme une forme de B. hemichrysus sous le nom de B. hemichrysus f. sphaerocephalus. Cependant, les analyses moléculaires ont révélé que B. hemichrysus est en réalité une espèce Nord-Américaine et que les récoltes Européennes doivent se réferer à l'espèce B. sphaerocephalus[2].
-Étymologie
-L'épithète spécifique sphaerocephalus fait réfèrence au chapeau presque sphérique de cette espèce lorsqu'elle est jeune puis restant ensuite longtemps hémisphérique.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Buchwaldoboletus_sphaerocephalus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Buchwaldoboletus_sphaerocephalus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anciennes récoltes Européennes étaient faites sous le nom de Buchwaldoboletus hemichrysus, le Bolet à moitié jaune, les récoltes cespiteuses étant parfois considérées comme une forme de B. hemichrysus sous le nom de B. hemichrysus f. sphaerocephalus. Cependant, les analyses moléculaires ont révélé que B. hemichrysus est en réalité une espèce Nord-Américaine et que les récoltes Européennes doivent se réferer à l'espèce B. sphaerocephalus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Buchwaldoboletus_sphaerocephalus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buchwaldoboletus_sphaerocephalus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique sphaerocephalus fait réfèrence au chapeau presque sphérique de cette espèce lorsqu'elle est jeune puis restant ensuite longtemps hémisphérique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Buchwaldoboletus_sphaerocephalus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buchwaldoboletus_sphaerocephalus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Buchwaldoboletus sphaerocephalus, le Bolet soufré, sont les suivantes :
-Son chapeau mesure jusqu'à 20 cm[3], il est d'abord presque rond[2] puis fortement hémisphérique avant de devenir convexe. Il est glabre, visqueux, surtout dans des conditions humides, de couleur crème, jaunâtre, jaune à jaune éclatant puis parfois taché d'orange ou rouillé pourpre[3],[4].
-L'hyménophore présente des tubes courts[2], terminés par des pores jaunes devenant olivâtres, bleuissants au toucher[4].
-Son stipe est charnu[2], concolore au chapeau[4].
-La chair est jaune, bleuissante à la coupe[3],[4].
-Caractéristiques microscopiques
-Ses spores mesurent 6 à 8,5 µm x 3 à 4,5 µm[4].
+Son chapeau mesure jusqu'à 20 cm, il est d'abord presque rond puis fortement hémisphérique avant de devenir convexe. Il est glabre, visqueux, surtout dans des conditions humides, de couleur crème, jaunâtre, jaune à jaune éclatant puis parfois taché d'orange ou rouillé pourpre,.
+L'hyménophore présente des tubes courts, terminés par des pores jaunes devenant olivâtres, bleuissants au toucher.
+Son stipe est charnu, concolore au chapeau.
+La chair est jaune, bleuissante à la coupe,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Buchwaldoboletus_sphaerocephalus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buchwaldoboletus_sphaerocephalus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 6 à 8,5 µm x 3 à 4,5 µm.
 </t>
         </is>
       </c>
